--- a/biology/Médecine/Orthésiste/Orthésiste.xlsx
+++ b/biology/Médecine/Orthésiste/Orthésiste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orth%C3%A9siste</t>
+          <t>Orthésiste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'orthopédiste orthésiste podologiste autrefois appelé bandagiste (terme encore employé en Belgique et Luxembourg) est un auxiliaire de santé inscrit au code de la santé publique (article L.4364-1), technicien de l'appareillage externe à but thérapeutique : il réalise des orthèses sur mesure ou de série en fonction de la prescription, de la pathologie et morphologie du patient après un examen clinique. Ses compétences théoriques (anatomie, pathologie, psychologie et technologie des matériaux) et ses connaissances pratiques (examen et analyse, conception et réalisation des appareillages) font de l'orthopédiste orthésiste podologiste[réf. nécessaire] un spécialiste de l'appareillage de la tête aux pieds.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orth%C3%A9siste</t>
+          <t>Orthésiste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,8 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-La formation d'orthésiste est ouverte à toutes celles et ceux qui ont une bonne culture générale et une bonne dextérité manuelle. 
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation d'orthésiste est ouverte à toutes celles et ceux qui ont une bonne culture générale et une bonne dextérité manuelle. 
 Le baccalauréat ou bien 5 ans d'expérience dans le domaine de la santé sont nécessaires pour accéder à la formation; des entretiens et tests de sélection sont réalisés avant l'entrée dans l'une des cinq écoles existantes sur le territoire français.
 Cette formation se déroule sur 2 300 heures (1 900 heures de cours magistraux et pratiques et 400 heures de stages). Le public concerné  est varié  (reconversions professionnelles, post bac, podologues, ergothérapeutes, kinésithérapeutes, infirmiers, d'anciens étudiants en médecine, des pharmaciens, des passionnés de sports, etc.
 Le diplôme obtenu est de niveau III (bac + 2) permettant l'obtention de l'agrément  de la sécurité sociale avec un n* Adeli qui autorise le remboursement des orthèses par les organismes d'assurance maladie.
@@ -534,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orth%C3%A9siste</t>
+          <t>Orthésiste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +569,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orthésiste sait travailler :
 Les matériaux modernes utilisés pour la confection des orthèses plantaires (les semelles orthopédiques)
